--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboGLAccountClassProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboGLAccountClassProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A835B79-0DFA-4F8E-B434-E518577484F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB45A91-48A1-4E28-B82D-C09367D829D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74A59986-FA09-446F-B0A5-CA6F1FF2E236}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{74A59986-FA09-446F-B0A5-CA6F1FF2E236}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -112,13 +112,13 @@
     <t>Adarsh Thakur</t>
   </si>
   <si>
-    <t>link_nacuboGLAccountCategoryProfile_wait</t>
-  </si>
-  <si>
     <t>checkAccessibility</t>
   </si>
   <si>
     <t>EditProfile_NacuboGLAccountCategory</t>
+  </si>
+  <si>
+    <t>link_nacuboGLAccountClassProfile_wait</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89C741-D4CC-41CB-9D6E-2AC4A75F0B60}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68866127-9D29-4F5B-BFBA-F99D29AF5F92}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5"/>
     </row>
